--- a/T41_V012_Files_01-15-24/T41_V012_BOMs/T41_BPF_Board_BOM_V12.6_03-09-24.xlsx
+++ b/T41_V012_Files_01-15-24/T41_V012_BOMs/T41_BPF_Board_BOM_V12.6_03-09-24.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\T41_V012_Files_01-15-24\T41_V012_BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E1E253-64F2-402F-927A-177CC4FB4C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F11D15-407B-42AA-9F1A-F7F15392E6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -762,9 +762,6 @@
     <t>14" of #28 wire, 26T on T37-0</t>
   </si>
   <si>
-    <t>FT37-63 Toroid Cores</t>
-  </si>
-  <si>
     <t>14" of  #28 wire, 26T on T37-6</t>
   </si>
   <si>
@@ -802,6 +799,9 @@
   </si>
   <si>
     <t>C2, C4, C5, C6, C7, C8, C9, C10, C11, C12, C13, C14, C15, C16, C17, C18, C19, C20, C21, C22, C23, C24, C25, C26, C27 C41, C91, C91, C97, C98, C100, C101,C107, C108, C190, C191, C197, C198, C200, C201, C207, C208, C290, C291, C297, C298, C300, C301, C307, C308, C400, C401, C407, C408, C500, C501, C507, C508, C600, C601, C607, C608, C700, C701</t>
+  </si>
+  <si>
+    <t>FT37-61 Toroid Cores</t>
   </si>
 </sst>
 </file>
@@ -1823,7 +1823,7 @@
   <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1884,7 +1884,7 @@
         <v>64</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
@@ -2138,7 +2138,7 @@
         <v>57</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>35</v>
@@ -2205,13 +2205,13 @@
         <v>1</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -2230,7 +2230,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>84</v>
@@ -2516,7 +2516,7 @@
         <v>122</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -2558,7 +2558,7 @@
         <v>132</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -2572,7 +2572,7 @@
         <v>160</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -2583,10 +2583,10 @@
         <v>163</v>
       </c>
       <c r="C54" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G54" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -2737,13 +2737,13 @@
         <v>165</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>219</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
@@ -2876,7 +2876,7 @@
         <v>2</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>37</v>
@@ -2887,7 +2887,7 @@
         <v>1</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>37</v>
@@ -3250,7 +3250,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>165</v>

--- a/T41_V012_Files_01-15-24/T41_V012_BOMs/T41_BPF_Board_BOM_V12.6_03-09-24.xlsx
+++ b/T41_V012_Files_01-15-24/T41_V012_BOMs/T41_BPF_Board_BOM_V12.6_03-09-24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\T41_V012_Files_01-15-24\T41_V012_BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F11D15-407B-42AA-9F1A-F7F15392E6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC9DD23-0D17-4B91-98A9-04E0A5B054C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,12 +48,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
     <t>74LVC1G04GW</t>
   </si>
   <si>
@@ -802,6 +796,12 @@
   </si>
   <si>
     <t>FT37-61 Toroid Cores</t>
+  </si>
+  <si>
+    <t>U22</t>
+  </si>
+  <si>
+    <t>U35</t>
   </si>
 </sst>
 </file>
@@ -1823,7 +1823,7 @@
   <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A36" sqref="A3:A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1841,7 +1841,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -1850,19 +1850,19 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -1870,13 +1870,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="170.5" x14ac:dyDescent="0.35">
@@ -1884,24 +1884,24 @@
         <v>64</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -1909,24 +1909,24 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -1934,24 +1934,24 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -1959,13 +1959,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -1973,24 +1973,24 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -1998,13 +1998,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -2012,13 +2012,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -2026,13 +2026,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -2040,13 +2040,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -2054,13 +2054,13 @@
         <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -2068,13 +2068,13 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -2082,24 +2082,24 @@
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -2107,13 +2107,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -2121,27 +2121,27 @@
         <v>2</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -2149,13 +2149,13 @@
         <v>2</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -2163,13 +2163,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -2177,13 +2177,13 @@
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="D25" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -2191,13 +2191,13 @@
         <v>2</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -2205,24 +2205,24 @@
         <v>1</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -2230,13 +2230,13 @@
         <v>3</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -2244,13 +2244,13 @@
         <v>2</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -2258,13 +2258,13 @@
         <v>3</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -2272,13 +2272,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -2286,13 +2286,13 @@
         <v>2</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -2300,13 +2300,13 @@
         <v>2</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -2314,13 +2314,13 @@
         <v>2</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -2328,13 +2328,13 @@
         <v>2</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -2342,13 +2342,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -2356,13 +2356,13 @@
         <v>4</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -2370,13 +2370,13 @@
         <v>1</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -2384,13 +2384,13 @@
         <v>1</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -2401,10 +2401,10 @@
         <v>0</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -2415,10 +2415,10 @@
         <v>1</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -2426,13 +2426,13 @@
         <v>2</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -2440,13 +2440,13 @@
         <v>2</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -2454,13 +2454,13 @@
         <v>2</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -2468,13 +2468,13 @@
         <v>2</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -2482,13 +2482,13 @@
         <v>2</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -2496,13 +2496,13 @@
         <v>2</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -2510,13 +2510,13 @@
         <v>2</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -2524,13 +2524,13 @@
         <v>2</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -2538,13 +2538,13 @@
         <v>3</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -2552,13 +2552,13 @@
         <v>2</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -2566,13 +2566,13 @@
         <v>2</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -2580,13 +2580,13 @@
         <v>2</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -2594,13 +2594,13 @@
         <v>3</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -2608,13 +2608,13 @@
         <v>1</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -2622,13 +2622,13 @@
         <v>1</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -2636,13 +2636,13 @@
         <v>2</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -2650,13 +2650,13 @@
         <v>2</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -2664,13 +2664,13 @@
         <v>2</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -2678,13 +2678,13 @@
         <v>1</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -2692,13 +2692,13 @@
         <v>3</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
@@ -2706,13 +2706,13 @@
         <v>2</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
@@ -2720,13 +2720,13 @@
         <v>2</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
@@ -2734,16 +2734,16 @@
         <v>1</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
@@ -2751,13 +2751,13 @@
         <v>6</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
@@ -2765,13 +2765,13 @@
         <v>1</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>4</v>
+        <v>254</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
@@ -2779,13 +2779,13 @@
         <v>1</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="62" x14ac:dyDescent="0.35">
@@ -2793,13 +2793,13 @@
         <v>21</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="31" x14ac:dyDescent="0.35">
@@ -2807,13 +2807,13 @@
         <v>11</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
@@ -2821,10 +2821,10 @@
         <v>19</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
@@ -2832,10 +2832,10 @@
         <v>6</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
@@ -2843,10 +2843,10 @@
         <v>1</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
@@ -2854,10 +2854,10 @@
         <v>4</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
@@ -2865,10 +2865,10 @@
         <v>13</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
@@ -2876,10 +2876,10 @@
         <v>2</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
@@ -2887,10 +2887,10 @@
         <v>1</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2932,114 +2932,114 @@
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="18"/>
       <c r="F1" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="M1" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="T1" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="L1" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="N1" s="16" t="s">
+      <c r="U1" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="V1" s="16" t="s">
         <v>203</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="V1" s="16" t="s">
-        <v>205</v>
       </c>
       <c r="W1" s="18"/>
       <c r="X1" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Z1" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AA1" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AB1" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AC1" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD1" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="AD1" s="15" t="s">
-        <v>183</v>
-      </c>
       <c r="AE1" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AF1" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AG1" s="18"/>
       <c r="AH1" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="AI1" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="AJ1" s="7" t="s">
-        <v>212</v>
-      </c>
       <c r="AL1" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AM1" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="15">
@@ -3095,13 +3095,13 @@
       </c>
       <c r="W2" s="18"/>
       <c r="X2" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AA2" s="15">
         <v>0.49</v>
@@ -3125,24 +3125,24 @@
       </c>
       <c r="AG2" s="18"/>
       <c r="AH2" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AI2" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="AI2" s="7" t="s">
-        <v>211</v>
-      </c>
       <c r="AJ2" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AL2" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AM2" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="7">
@@ -3189,12 +3189,12 @@
         <v>0.52</v>
       </c>
       <c r="AJ3" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="7">
@@ -3244,16 +3244,16 @@
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B6" s="7">
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="17">
@@ -3357,7 +3357,7 @@
         <v>4</v>
       </c>
       <c r="AL6" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AM6" s="7">
         <v>19</v>
@@ -3368,10 +3368,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="17">
@@ -3475,7 +3475,7 @@
         <v>10</v>
       </c>
       <c r="AL7" s="27" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AM7" s="7">
         <v>6</v>
@@ -3486,10 +3486,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="17">
@@ -3593,7 +3593,7 @@
         <v>14</v>
       </c>
       <c r="AL8" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AM8" s="7">
         <v>1</v>
@@ -3604,10 +3604,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="17">
@@ -3711,7 +3711,7 @@
         <v>27</v>
       </c>
       <c r="AL9" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AM9" s="7">
         <v>4</v>
@@ -3722,10 +3722,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="17">
@@ -3829,7 +3829,7 @@
         <v>9</v>
       </c>
       <c r="AL10" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AM10" s="7">
         <v>13</v>
@@ -3840,10 +3840,10 @@
         <v>2</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="17">
@@ -3947,7 +3947,7 @@
         <v>18</v>
       </c>
       <c r="AL11" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AM11" s="7">
         <v>2</v>
@@ -3958,10 +3958,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="10">
@@ -4074,10 +4074,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="10">
@@ -4186,10 +4186,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="10">
@@ -4276,10 +4276,10 @@
         <v>331.24</v>
       </c>
       <c r="AB14" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AC14" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AD14" s="11"/>
       <c r="AE14" s="11"/>
@@ -4302,10 +4302,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="10">
@@ -4388,10 +4388,10 @@
         <v>10</v>
       </c>
       <c r="AA15" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB15" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AC15" s="20">
         <f>$Z15*$Z15*AC$2</f>
@@ -4418,10 +4418,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="10">
@@ -4508,10 +4508,10 @@
         <v>566.43999999999994</v>
       </c>
       <c r="AB16" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AC16" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AD16" s="11"/>
       <c r="AE16" s="11"/>
@@ -4534,10 +4534,10 @@
         <v>2</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="10">
@@ -4620,14 +4620,14 @@
         <v>17</v>
       </c>
       <c r="AA17" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB17" s="20">
         <f>$Z17*$Z17*AB$2</f>
         <v>722.5</v>
       </c>
       <c r="AC17" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AD17" s="11"/>
       <c r="AE17" s="11"/>
@@ -4650,10 +4650,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="10">
@@ -4759,10 +4759,10 @@
         <v>2</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="10">
@@ -4845,14 +4845,14 @@
         <v>18</v>
       </c>
       <c r="AA19" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB19" s="20">
         <f t="shared" si="10"/>
         <v>810</v>
       </c>
       <c r="AC19" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AD19" s="11"/>
       <c r="AE19" s="11"/>
@@ -4874,10 +4874,10 @@
         <v>3</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="10">
@@ -4981,10 +4981,10 @@
         <v>2</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="10">
@@ -5088,10 +5088,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="10">
@@ -5174,13 +5174,13 @@
         <v>26</v>
       </c>
       <c r="AA22" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB22" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AC22" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AD22" s="20">
         <f>$Z22*$Z22*AD$2</f>
@@ -5204,10 +5204,10 @@
         <v>2</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="10">
@@ -5290,13 +5290,13 @@
         <v>27</v>
       </c>
       <c r="AA23" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB23" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AC23" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AD23" s="20">
         <f>$Z23*$Z23*AD$2</f>
@@ -5322,10 +5322,10 @@
         <v>2</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E24" s="19"/>
       <c r="F24" s="10">
@@ -5408,17 +5408,17 @@
         <v>38</v>
       </c>
       <c r="AA24" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB24" s="20">
         <f>$Z24*$Z24*AB$2</f>
         <v>3610</v>
       </c>
       <c r="AC24" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AD24" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AE24" s="11"/>
       <c r="AG24" s="19"/>
@@ -5439,10 +5439,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="10">
@@ -5525,23 +5525,23 @@
         <v>22</v>
       </c>
       <c r="AA25" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB25" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AC25" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AD25" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AE25" s="20">
         <f t="shared" ref="AE25:AF28" si="12">$Z25*$Z25*AE$2</f>
         <v>3872</v>
       </c>
       <c r="AF25" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AG25" s="19"/>
       <c r="AH25" s="22">
@@ -5561,10 +5561,10 @@
         <v>2</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="10">
@@ -5647,23 +5647,23 @@
         <v>25</v>
       </c>
       <c r="AA26" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB26" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AC26" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AD26" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AE26" s="20">
         <f t="shared" si="12"/>
         <v>5000</v>
       </c>
       <c r="AF26" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AG26" s="19"/>
       <c r="AH26" s="22">
@@ -5684,10 +5684,10 @@
         <v>2</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E27" s="19"/>
       <c r="F27" s="10">
@@ -5770,23 +5770,23 @@
         <v>26</v>
       </c>
       <c r="AA27" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB27" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AC27" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AD27" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AE27" s="20">
         <f t="shared" si="12"/>
         <v>5408</v>
       </c>
       <c r="AF27" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AG27" s="19"/>
       <c r="AH27" s="22">
@@ -5806,10 +5806,10 @@
         <v>2</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E28" s="19"/>
       <c r="F28" s="10">
@@ -5892,19 +5892,19 @@
         <v>24</v>
       </c>
       <c r="AA28" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB28" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AC28" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AD28" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AE28" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AF28" s="20">
         <f t="shared" si="12"/>
@@ -5925,16 +5925,16 @@
     </row>
     <row r="29" spans="2:39" x14ac:dyDescent="0.35">
       <c r="F29" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T29" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="2:39" x14ac:dyDescent="0.35">
@@ -5947,14 +5947,14 @@
         <v>523.07999999999993</v>
       </c>
       <c r="AK30" s="23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AL30" s="10">
         <f>AJ30/12</f>
         <v>43.589999999999996</v>
       </c>
       <c r="AM30" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/T41_V012_Files_01-15-24/T41_V012_BOMs/T41_BPF_Board_BOM_V12.6_03-09-24.xlsx
+++ b/T41_V012_Files_01-15-24/T41_V012_BOMs/T41_BPF_Board_BOM_V12.6_03-09-24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\T41_V012_Files_01-15-24\T41_V012_BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC9DD23-0D17-4B91-98A9-04E0A5B054C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2F5250-6A1F-4E13-B482-D280E9F744D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -624,9 +624,6 @@
     <t>nH</t>
   </si>
   <si>
-    <t>FT37-63</t>
-  </si>
-  <si>
     <t>FT23-63</t>
   </si>
   <si>
@@ -729,9 +726,6 @@
     <t>T37-1 Toroid Cores</t>
   </si>
   <si>
-    <t>14"of  #28 wire, 14T on FT37-63</t>
-  </si>
-  <si>
     <t>14" of  #28 wire, 26T on T37-1</t>
   </si>
   <si>
@@ -792,16 +786,22 @@
     <t>80-C1206C201J5HAUTO</t>
   </si>
   <si>
-    <t>C2, C4, C5, C6, C7, C8, C9, C10, C11, C12, C13, C14, C15, C16, C17, C18, C19, C20, C21, C22, C23, C24, C25, C26, C27 C41, C91, C91, C97, C98, C100, C101,C107, C108, C190, C191, C197, C198, C200, C201, C207, C208, C290, C291, C297, C298, C300, C301, C307, C308, C400, C401, C407, C408, C500, C501, C507, C508, C600, C601, C607, C608, C700, C701</t>
-  </si>
-  <si>
-    <t>FT37-61 Toroid Cores</t>
-  </si>
-  <si>
     <t>U22</t>
   </si>
   <si>
     <t>U35</t>
+  </si>
+  <si>
+    <t>C2, C4, C5, C6, C7, C8, C9, C10, C11, C12, C13, C14, C15, C16, C17, C18, C19, C20, C21, C22, C23, C24, C25, C26, C27 C41, C91, C92, C97, C98, C100, C101,C107, C108, C190, C191, C197, C198, C200, C201, C207, C208, C290, C291, C297, C298, C300, C301, C307, C308, C400, C401, C407, C408, C500, C501, C507, C508, C600, C601, C607, C608, C700, C701</t>
+  </si>
+  <si>
+    <t>FT37-67</t>
+  </si>
+  <si>
+    <t>FT37-67 Toroid Cores</t>
+  </si>
+  <si>
+    <t>14"of  #28 wire, 14T on FT37-67</t>
   </si>
 </sst>
 </file>
@@ -1822,8 +1822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A3:A36"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2138,7 +2138,7 @@
         <v>55</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>33</v>
@@ -2205,13 +2205,13 @@
         <v>1</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -2230,7 +2230,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>82</v>
@@ -2432,7 +2432,7 @@
         <v>122</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -2446,7 +2446,7 @@
         <v>126</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -2460,7 +2460,7 @@
         <v>132</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -2474,7 +2474,7 @@
         <v>136</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -2488,7 +2488,7 @@
         <v>142</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -2502,7 +2502,7 @@
         <v>148</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -2516,7 +2516,7 @@
         <v>120</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -2530,7 +2530,7 @@
         <v>154</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -2544,7 +2544,7 @@
         <v>124</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -2558,7 +2558,7 @@
         <v>130</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -2572,7 +2572,7 @@
         <v>158</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -2583,10 +2583,10 @@
         <v>161</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -2600,7 +2600,7 @@
         <v>128</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -2614,7 +2614,7 @@
         <v>134</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -2628,7 +2628,7 @@
         <v>138</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -2642,7 +2642,7 @@
         <v>140</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -2656,7 +2656,7 @@
         <v>146</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -2670,7 +2670,7 @@
         <v>152</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -2684,7 +2684,7 @@
         <v>144</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -2698,7 +2698,7 @@
         <v>150</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
@@ -2712,7 +2712,7 @@
         <v>156</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
@@ -2726,7 +2726,7 @@
         <v>160</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
@@ -2737,13 +2737,13 @@
         <v>163</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
@@ -2765,7 +2765,7 @@
         <v>1</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>9</v>
@@ -2779,7 +2779,7 @@
         <v>1</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>88</v>
@@ -2821,7 +2821,7 @@
         <v>19</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>35</v>
@@ -2832,7 +2832,7 @@
         <v>6</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>35</v>
@@ -2843,7 +2843,7 @@
         <v>1</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>35</v>
@@ -2854,7 +2854,7 @@
         <v>4</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>35</v>
@@ -2865,7 +2865,7 @@
         <v>13</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>35</v>
@@ -2876,7 +2876,7 @@
         <v>2</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>35</v>
@@ -2887,7 +2887,7 @@
         <v>1</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>35</v>
@@ -2896,7 +2896,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="3" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="256" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2904,8 +2904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091BD561-3346-46A4-8F4F-042AA97B323E}">
   <dimension ref="A1:AM30"/>
   <sheetViews>
-    <sheetView topLeftCell="R3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="S15" workbookViewId="0">
+      <selection activeCell="AL12" sqref="AL12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2963,22 +2963,22 @@
         <v>184</v>
       </c>
       <c r="M1" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q1" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="N1" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>198</v>
-      </c>
       <c r="R1" s="16" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="S1" s="16" t="s">
         <v>186</v>
@@ -2987,10 +2987,10 @@
         <v>185</v>
       </c>
       <c r="U1" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="V1" s="16" t="s">
         <v>202</v>
-      </c>
-      <c r="V1" s="16" t="s">
-        <v>203</v>
       </c>
       <c r="W1" s="18"/>
       <c r="X1" s="8" t="s">
@@ -3000,7 +3000,7 @@
         <v>187</v>
       </c>
       <c r="Z1" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA1" s="15" t="s">
         <v>184</v>
@@ -3018,23 +3018,23 @@
         <v>178</v>
       </c>
       <c r="AF1" s="16" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AG1" s="18"/>
       <c r="AH1" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AI1" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AJ1" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AL1" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM1" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.35">
@@ -3095,10 +3095,10 @@
       </c>
       <c r="W2" s="18"/>
       <c r="X2" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Z2" s="7" t="s">
         <v>191</v>
@@ -3120,15 +3120,14 @@
         <v>8</v>
       </c>
       <c r="AF2" s="16">
-        <f>R2</f>
-        <v>19.7</v>
+        <v>20</v>
       </c>
       <c r="AG2" s="18"/>
       <c r="AH2" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AI2" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AJ2" s="7" t="s">
         <v>192</v>
@@ -3137,7 +3136,7 @@
         <v>192</v>
       </c>
       <c r="AM2" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.35">
@@ -3189,7 +3188,7 @@
         <v>0.52</v>
       </c>
       <c r="AJ3" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.35">
@@ -3250,7 +3249,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>163</v>
@@ -3947,7 +3946,7 @@
         <v>18</v>
       </c>
       <c r="AL11" s="16" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AM11" s="7">
         <v>2</v>
@@ -5908,12 +5907,12 @@
       </c>
       <c r="AF28" s="20">
         <f t="shared" si="12"/>
-        <v>11347.199999999999</v>
+        <v>11520</v>
       </c>
       <c r="AG28" s="19"/>
       <c r="AH28" s="22">
         <f>(AF28-X28)/X28</f>
-        <v>3.1563636363636266E-2</v>
+        <v>4.7272727272727272E-2</v>
       </c>
       <c r="AI28" s="10">
         <v>14</v>
@@ -5942,19 +5941,22 @@
         <f>SUM(B6:B28)</f>
         <v>45</v>
       </c>
+      <c r="Z30" s="7">
+        <v>14</v>
+      </c>
       <c r="AJ30" s="10">
         <f>SUM(AJ6:AJ28)</f>
         <v>523.07999999999993</v>
       </c>
       <c r="AK30" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL30" s="10">
         <f>AJ30/12</f>
         <v>43.589999999999996</v>
       </c>
       <c r="AM30" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/T41_V012_Files_01-15-24/T41_V012_BOMs/T41_BPF_Board_BOM_V12.6_03-09-24.xlsx
+++ b/T41_V012_Files_01-15-24/T41_V012_BOMs/T41_BPF_Board_BOM_V12.6_03-09-24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\T41_V012_Files_01-15-24\T41_V012_BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2F5250-6A1F-4E13-B482-D280E9F744D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF930331-B3B1-4967-AC23-887F82AC3762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1820,6 +1820,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -2896,7 +2899,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="5" scale="86" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/T41_V012_Files_01-15-24/T41_V012_BOMs/T41_BPF_Board_BOM_V12.6_03-09-24.xlsx
+++ b/T41_V012_Files_01-15-24/T41_V012_BOMs/T41_BPF_Board_BOM_V12.6_03-09-24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\T41_V012_Files_01-15-24\T41_V012_BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF930331-B3B1-4967-AC23-887F82AC3762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA354B0-A005-4768-813F-FFAC9F9C5725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="256">
   <si>
     <t>L1</t>
   </si>
@@ -762,9 +762,6 @@
     <t>11" of  #28 wire, 17T on T37-10</t>
   </si>
   <si>
-    <t>523" of #28 Transformer Wire</t>
-  </si>
-  <si>
     <t>*** Use 22uH precision 1206 inductor</t>
   </si>
   <si>
@@ -798,10 +795,13 @@
     <t>FT37-67</t>
   </si>
   <si>
-    <t>FT37-67 Toroid Cores</t>
-  </si>
-  <si>
-    <t>14"of  #28 wire, 14T on FT37-67</t>
+    <t>14"of  #28 wire, 14T on FT37-61</t>
+  </si>
+  <si>
+    <t>FT37-61 Toroid Cores</t>
+  </si>
+  <si>
+    <t>511" of #28 Transformer Wire</t>
   </si>
 </sst>
 </file>
@@ -1825,8 +1825,8 @@
   </sheetPr>
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1887,7 +1887,7 @@
         <v>64</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
@@ -2141,7 +2141,7 @@
         <v>55</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>33</v>
@@ -2208,13 +2208,13 @@
         <v>1</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -2233,7 +2233,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>82</v>
@@ -2435,7 +2435,7 @@
         <v>122</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -2740,13 +2740,13 @@
         <v>163</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>216</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
@@ -2768,7 +2768,7 @@
         <v>1</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>9</v>
@@ -2782,7 +2782,7 @@
         <v>1</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>88</v>
@@ -2890,7 +2890,7 @@
         <v>1</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>35</v>
@@ -2907,8 +2907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091BD561-3346-46A4-8F4F-042AA97B323E}">
   <dimension ref="A1:AM30"/>
   <sheetViews>
-    <sheetView topLeftCell="S15" workbookViewId="0">
-      <selection activeCell="AL12" sqref="AL12"/>
+    <sheetView topLeftCell="S13" workbookViewId="0">
+      <selection activeCell="AI28" sqref="AI28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2981,7 +2981,7 @@
         <v>197</v>
       </c>
       <c r="R1" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S1" s="16" t="s">
         <v>186</v>
@@ -3021,7 +3021,7 @@
         <v>178</v>
       </c>
       <c r="AF1" s="16" t="s">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="AG1" s="18"/>
       <c r="AH1" s="7" t="s">
@@ -3123,7 +3123,7 @@
         <v>8</v>
       </c>
       <c r="AF2" s="16">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="AG2" s="18"/>
       <c r="AH2" s="7" t="s">
@@ -3252,7 +3252,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>163</v>
@@ -3949,7 +3949,7 @@
         <v>18</v>
       </c>
       <c r="AL11" s="16" t="s">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="AM11" s="7">
         <v>2</v>
@@ -5891,7 +5891,7 @@
         <v>11</v>
       </c>
       <c r="Z28" s="12">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="AA28" s="11" t="s">
         <v>33</v>
@@ -5910,19 +5910,19 @@
       </c>
       <c r="AF28" s="20">
         <f t="shared" si="12"/>
-        <v>11520</v>
+        <v>10780</v>
       </c>
       <c r="AG28" s="19"/>
       <c r="AH28" s="22">
         <f>(AF28-X28)/X28</f>
-        <v>4.7272727272727272E-2</v>
+        <v>-0.02</v>
       </c>
       <c r="AI28" s="10">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AJ28" s="10">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="2:39" x14ac:dyDescent="0.35">
@@ -5944,19 +5944,19 @@
         <f>SUM(B6:B28)</f>
         <v>45</v>
       </c>
-      <c r="Z30" s="7">
-        <v>14</v>
+      <c r="Z30" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="AJ30" s="10">
         <f>SUM(AJ6:AJ28)</f>
-        <v>523.07999999999993</v>
+        <v>511.08</v>
       </c>
       <c r="AK30" s="23" t="s">
         <v>211</v>
       </c>
       <c r="AL30" s="10">
         <f>AJ30/12</f>
-        <v>43.589999999999996</v>
+        <v>42.589999999999996</v>
       </c>
       <c r="AM30" s="6" t="s">
         <v>212</v>
